--- a/weekies_ver_03/weekies.xlsx
+++ b/weekies_ver_03/weekies.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\proj\weekies_ver_03\weekies_ver_03\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{895CD3EC-E2C6-49DF-AFB1-01A84C39B93B}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{0E850ED1-2570-400D-86B7-7DABA6429AA0}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2100" yWindow="20" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8610" yWindow="20" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2018" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="32">
   <si>
     <t>Count</t>
   </si>
@@ -31,6 +31,12 @@
     <t>Name</t>
   </si>
   <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Developers</t>
+  </si>
+  <si>
     <t>Jaime</t>
   </si>
   <si>
@@ -49,7 +55,22 @@
     <t>Boy</t>
   </si>
   <si>
-    <t>Developers</t>
+    <t>Yolung</t>
+  </si>
+  <si>
+    <t>Yenting</t>
+  </si>
+  <si>
+    <t>Maso</t>
+  </si>
+  <si>
+    <t>Adrien</t>
+  </si>
+  <si>
+    <t>Raymond</t>
+  </si>
+  <si>
+    <t>Product Operations</t>
   </si>
   <si>
     <t>John</t>
@@ -95,24 +116,6 @@
   </si>
   <si>
     <t>Victoria</t>
-  </si>
-  <si>
-    <t>Product Operations</t>
-  </si>
-  <si>
-    <t>Yolung</t>
-  </si>
-  <si>
-    <t>Yenting</t>
-  </si>
-  <si>
-    <t>Maso</t>
-  </si>
-  <si>
-    <t>Adrien</t>
-  </si>
-  <si>
-    <t>Raymond</t>
   </si>
 </sst>
 </file>
@@ -491,8 +494,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -510,8 +513,8 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1">
-        <v>43259</v>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
@@ -519,10 +522,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D2" s="1">
         <v>43259</v>
@@ -533,13 +536,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D3" s="1">
-        <v>43252</v>
+        <v>43322</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
@@ -547,10 +550,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D4" s="1">
         <v>43224</v>
@@ -558,30 +561,30 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D5" s="1">
-        <v>43231</v>
+        <v>43301</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
         <v>9</v>
       </c>
-      <c r="C6" t="s">
-        <v>7</v>
-      </c>
       <c r="D6" s="1">
-        <v>43245</v>
+        <v>43315</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
@@ -589,10 +592,10 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D7" s="1">
         <v>43279</v>
@@ -603,10 +606,10 @@
         <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="D8" s="1">
         <v>43294</v>
@@ -617,10 +620,10 @@
         <v>2</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="D9" s="1">
         <v>43238</v>
@@ -631,10 +634,10 @@
         <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="D10" s="1">
         <v>43287</v>
@@ -645,10 +648,10 @@
         <v>3</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C11" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="D11" s="1">
         <v>43266</v>
@@ -659,10 +662,10 @@
         <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C12" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D12" s="1">
         <v>43252</v>
@@ -673,10 +676,10 @@
         <v>3</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="C13" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D13" s="1">
         <v>43272</v>
@@ -687,10 +690,10 @@
         <v>1</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="C14" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D14" s="1">
         <v>43133</v>
@@ -701,10 +704,10 @@
         <v>1</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="C15" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D15" s="1">
         <v>43140</v>
@@ -715,10 +718,10 @@
         <v>1</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="C16" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D16" s="1">
         <v>43161</v>
@@ -729,27 +732,27 @@
         <v>2</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="C17" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D17" s="1">
-        <v>43238</v>
+        <v>43322</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="C18" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D18" s="1">
-        <v>43105</v>
+        <v>43301</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
@@ -757,10 +760,10 @@
         <v>3</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="C19" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D19" s="1">
         <v>43279</v>
@@ -768,30 +771,30 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="C20" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D20" s="1">
-        <v>43231</v>
+        <v>43308</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B21" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" t="s">
         <v>25</v>
       </c>
-      <c r="C21" t="s">
-        <v>18</v>
-      </c>
       <c r="D21" s="1">
-        <v>43101</v>
+        <v>43315</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
@@ -799,10 +802,10 @@
         <v>2</v>
       </c>
       <c r="B22" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D22" s="1">
         <v>43287</v>
@@ -813,10 +816,10 @@
         <v>3</v>
       </c>
       <c r="B23" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D23" s="1">
         <v>43266</v>
@@ -827,10 +830,10 @@
         <v>3</v>
       </c>
       <c r="B24" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C24" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D24" s="1">
         <v>43294</v>
@@ -841,10 +844,10 @@
         <v>3</v>
       </c>
       <c r="B25" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C25" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D25" s="1">
         <v>43272</v>
@@ -855,10 +858,10 @@
         <v>2</v>
       </c>
       <c r="B26" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C26" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D26" s="1">
         <v>43259</v>
@@ -866,6 +869,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>